--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Amount of time taken by each method over the course of 1 frames, simulating 2 particles:</t>
   </si>
@@ -442,6 +442,30 @@
   </si>
   <si>
     <t>saveFrame()        = 00001445371193 nanoseconds</t>
+  </si>
+  <si>
+    <t>Amount of time taken by each method over the course of 1 frames, simulating 262144 particles:</t>
+  </si>
+  <si>
+    <t>collideParticles() = 00493020070901 nanoseconds</t>
+  </si>
+  <si>
+    <t>calculateGrav()    = 12149956944835 nanoseconds</t>
+  </si>
+  <si>
+    <t>updateFocus()      = 00000010111520 nanoseconds</t>
+  </si>
+  <si>
+    <t>eraseParticles()   = 00017484682538 nanoseconds</t>
+  </si>
+  <si>
+    <t>updateVelAndPos()  = 00000008860862 nanoseconds</t>
+  </si>
+  <si>
+    <t>drawParticles()    = 00000080240423 nanoseconds</t>
+  </si>
+  <si>
+    <t>saveFrame()        = 00001615842811 nanoseconds</t>
   </si>
 </sst>
 </file>
@@ -583,9 +607,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4956520586441842E-2"/>
+          <c:x val="0.12216738447159693"/>
           <c:y val="8.0938366335187584E-2"/>
-          <c:w val="0.86733304170312042"/>
+          <c:w val="0.84012214562027732"/>
           <c:h val="0.76923571258952672"/>
         </c:manualLayout>
       </c:layout>
@@ -632,10 +656,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -686,16 +710,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$4:$R$4</c:f>
+              <c:f>Table!$B$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>153351</c:v>
                 </c:pt>
@@ -746,6 +773,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3090322729460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12149956944835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,10 +827,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -851,16 +881,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$5:$R$5</c:f>
+              <c:f>Table!$B$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>12679</c:v>
                 </c:pt>
@@ -911,6 +944,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>149938824940</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>493020070901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,10 +998,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1016,16 +1052,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$6:$R$6</c:f>
+              <c:f>Table!$B$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>93882</c:v>
                 </c:pt>
@@ -1076,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8902284783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17484682538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,10 +1169,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1181,16 +1223,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$7:$R$7</c:f>
+              <c:f>Table!$B$7:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>65885783</c:v>
                 </c:pt>
@@ -1241,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1445371193</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1615842811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,10 +1340,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1346,16 +1394,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$8:$R$8</c:f>
+              <c:f>Table!$B$8:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>74562</c:v>
                 </c:pt>
@@ -1406,6 +1457,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>41012396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80240423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,10 +1511,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1511,16 +1565,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$9:$R$9</c:f>
+              <c:f>Table!$B$9:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2415</c:v>
                 </c:pt>
@@ -1571,6 +1628,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6832883</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10111520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,10 +1688,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1682,16 +1742,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$10:$R$10</c:f>
+              <c:f>Table!$B$10:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4830</c:v>
                 </c:pt>
@@ -1742,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6261438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8860862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,6 +1970,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9612132737678534E-2"/>
+              <c:y val="0.36157366248242628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2018,7 +2152,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2147,10 +2280,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2201,16 +2334,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$4:$R$4</c:f>
+              <c:f>Table!$B$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>153351</c:v>
                 </c:pt>
@@ -2261,6 +2397,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3090322729460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12149956944835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,10 +2451,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2366,16 +2505,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$5:$R$5</c:f>
+              <c:f>Table!$B$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>12679</c:v>
                 </c:pt>
@@ -2426,6 +2568,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>149938824940</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>493020070901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,10 +2622,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2531,16 +2676,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$6:$R$6</c:f>
+              <c:f>Table!$B$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>93882</c:v>
                 </c:pt>
@@ -2591,6 +2739,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8902284783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17484682538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,10 +2793,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2696,16 +2847,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$7:$R$7</c:f>
+              <c:f>Table!$B$7:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>65885783</c:v>
                 </c:pt>
@@ -2756,6 +2910,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1445371193</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1615842811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,10 +2964,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2861,16 +3018,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$8:$R$8</c:f>
+              <c:f>Table!$B$8:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>74562</c:v>
                 </c:pt>
@@ -2921,6 +3081,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>41012396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80240423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,10 +3135,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3026,16 +3189,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$9:$R$9</c:f>
+              <c:f>Table!$B$9:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2415</c:v>
                 </c:pt>
@@ -3086,6 +3252,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6832883</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10111520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,10 +3312,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$B$2:$R$2</c:f>
+              <c:f>Table!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3197,16 +3366,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$B$10:$R$10</c:f>
+              <c:f>Table!$B$10:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4830</c:v>
                 </c:pt>
@@ -3257,6 +3429,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6261438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8860862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,6 +3592,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Computation Time (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6027,44 +6262,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.10587</cdr:x>
-      <cdr:y>0.044</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart"/>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="938865" cy="256054"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6398,10 +6595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A152"/>
+  <dimension ref="A1:A161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A153"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,6 +7286,46 @@
         <v>137</v>
       </c>
     </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7099,7 +7336,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R10"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7280,9 +7517,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;1+9*$R$1),FIND("simulating ",INDIRECT("Input!A"&amp;1+9*$R$1),1)+11,FIND("particles",INDIRECT("Input!A"&amp;1+9*$R$1),1)-FIND("simulating ",INDIRECT("Input!A"&amp;1+9*$R$1),1)-11))</f>
         <v>131072</v>
       </c>
-      <c r="S2" t="e">
+      <c r="S2">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;1+9*$S$1),FIND("simulating ",INDIRECT("Input!A"&amp;1+9*$S$1),1)+11,FIND("particles",INDIRECT("Input!A"&amp;1+9*$S$1),1)-FIND("simulating ",INDIRECT("Input!A"&amp;1+9*$S$1),1)-11))</f>
-        <v>#VALUE!</v>
+        <v>262144</v>
       </c>
       <c r="T2" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;1+9*$T$1),FIND("simulating ",INDIRECT("Input!A"&amp;1+9*$T$1),1)+11,FIND("particles",INDIRECT("Input!A"&amp;1+9*$T$1),1)-FIND("simulating ",INDIRECT("Input!A"&amp;1+9*$T$1),1)-11))</f>
@@ -7414,9 +7651,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;3+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;3+9*$R$1),1)+2,14))</f>
         <v>3090322729460</v>
       </c>
-      <c r="S4" t="e">
+      <c r="S4">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;3+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;3+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>12149956944835</v>
       </c>
       <c r="T4" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;3+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;3+9*$T$1),1)+2,14))</f>
@@ -7548,9 +7785,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;2+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;2+9*$R$1),1)+2,14))</f>
         <v>149938824940</v>
       </c>
-      <c r="S5" t="e">
+      <c r="S5">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;2+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;2+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>493020070901</v>
       </c>
       <c r="T5" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;2+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;2+9*$T$1),1)+2,14))</f>
@@ -7682,9 +7919,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;5+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;5+9*$R$1),1)+2,14))</f>
         <v>8902284783</v>
       </c>
-      <c r="S6" t="e">
+      <c r="S6">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;5+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;5+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>17484682538</v>
       </c>
       <c r="T6" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;5+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;5+9*$T$1),1)+2,14))</f>
@@ -7816,9 +8053,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;8+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;8+9*$R$1),1)+2,14))</f>
         <v>1445371193</v>
       </c>
-      <c r="S7" t="e">
+      <c r="S7">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;8+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;8+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>1615842811</v>
       </c>
       <c r="T7" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;8+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;8+9*$T$1),1)+2,14))</f>
@@ -7950,9 +8187,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;7+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;7+9*$R$1),1)+2,14))</f>
         <v>41012396</v>
       </c>
-      <c r="S8" t="e">
+      <c r="S8">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;7+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;7+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>80240423</v>
       </c>
       <c r="T8" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;7+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;7+9*$T$1),1)+2,14))</f>
@@ -8084,9 +8321,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;4+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;4+9*$R$1),1)+2,14))</f>
         <v>6832883</v>
       </c>
-      <c r="S9" t="e">
+      <c r="S9">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;4+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;4+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>10111520</v>
       </c>
       <c r="T9" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;4+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;4+9*$T$1),1)+2,14))</f>
@@ -8218,9 +8455,9 @@
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;6+9*$R$1),FIND("=",INDIRECT("Input!A"&amp;6+9*$R$1),1)+2,14))</f>
         <v>6261438</v>
       </c>
-      <c r="S10" t="e">
+      <c r="S10">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;6+9*$S$1),FIND("=",INDIRECT("Input!A"&amp;6+9*$S$1),1)+2,14))</f>
-        <v>#VALUE!</v>
+        <v>8860862</v>
       </c>
       <c r="T10" t="e">
         <f ca="1">VALUE(MID(INDIRECT("Input!A"&amp;6+9*$T$1),FIND("=",INDIRECT("Input!A"&amp;6+9*$T$1),1)+2,14))</f>
@@ -8313,8 +8550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8332,8 +8569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Amount of time taken by each method over the course of 1 frames, simulating 2 particles:</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>saveFrame()        = 00001615842811 nanoseconds</t>
+  </si>
+  <si>
+    <t>Table!$A$2:$S$2,Table!$A$4:$S$10</t>
   </si>
 </sst>
 </file>
@@ -4018,8 +4021,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.34893845836661608"/>
-                  <c:y val="-0.39562535644622515"/>
+                  <c:x val="0.37448632277228538"/>
+                  <c:y val="-0.41919438959632316"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
@@ -4063,7 +4066,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -4075,8 +4077,8 @@
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
                       <a:avLst>
-                        <a:gd name="adj1" fmla="val 10613"/>
-                        <a:gd name="adj2" fmla="val 256519"/>
+                        <a:gd name="adj1" fmla="val -75814"/>
+                        <a:gd name="adj2" fmla="val 223898"/>
                       </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
@@ -4094,30 +4096,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2827433024454793E-2"/>
-                  <c:y val="-0.24536380279597617"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-42AF-4FE8-ABC7-465608F1A52B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.1640401888535318E-3"/>
-                  <c:y val="-0.17879222839396713"/>
+                  <c:x val="7.3996513968088975E-3"/>
+                  <c:y val="-0.29090849456284718"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
@@ -4161,7 +4141,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -4173,8 +4152,83 @@
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
                       <a:avLst>
-                        <a:gd name="adj1" fmla="val -76528"/>
-                        <a:gd name="adj2" fmla="val 372721"/>
+                        <a:gd name="adj1" fmla="val -76626"/>
+                        <a:gd name="adj2" fmla="val 574754"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-42AF-4FE8-ABC7-465608F1A52B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3056500230493492E-2"/>
+                  <c:y val="-0.25813131718562043"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -134944"/>
+                        <a:gd name="adj2" fmla="val 544106"/>
                       </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
@@ -4189,36 +4243,13 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.480111152074234E-2"/>
-                  <c:y val="-0.19591063324019803"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-42AF-4FE8-ABC7-465608F1A52B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0979496115964464E-2"/>
-                  <c:y val="-0.27009038757386522"/>
+                  <c:x val="2.6996387179981936E-2"/>
+                  <c:y val="-0.11602474395778718"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -4236,11 +4267,10 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8382827425237109E-2"/>
-                  <c:y val="-0.11031860900904356"/>
+                  <c:x val="3.1904821212705929E-2"/>
+                  <c:y val="-3.9942944641205423E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -4258,11 +4288,10 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6071132721858044E-2"/>
-                  <c:y val="7.6081799316581756E-3"/>
+                  <c:x val="1.8406627622714777E-2"/>
+                  <c:y val="3.6138854675376336E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -4278,7 +4307,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3351721294271987E-2"/>
+                  <c:y val="7.2667104386624941E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4323,7 +4363,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -4376,30 +4415,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$R$4:$R$10</c:f>
+              <c:f>Table!$S$4:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3090322729460</c:v>
+                  <c:v>12149956944835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149938824940</c:v>
+                  <c:v>493020070901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8902284783</c:v>
+                  <c:v>17484682538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1445371193</c:v>
+                  <c:v>1615842811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41012396</c:v>
+                  <c:v>80240423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6832883</c:v>
+                  <c:v>10111520</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6261438</c:v>
+                  <c:v>8860862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7335,8 +7374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8548,17 +8587,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="V35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="35" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8567,17 +8612,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="U5:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U5" t="e">
+        <f>Table!$A$4:$A$10,Table!$N$4:$N$10</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U6" t="e">
+        <f>Table!$A$4:$A$10,Table!$P$4:$P$10</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="4" r:id="rId1"/>
@@ -527,6 +527,1922 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Particle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Count = 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>calculateGrav()    </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collideParticles() </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eraseParticles()   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>saveFrame()        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>drawParticles()    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>updateFocus()      </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>updateVelAndPos()  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>153351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65885783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B23-47C5-BCC2-C3C822E61EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="percent"/>
+        <c:splitPos val="1"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Particle Count = 128</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5000000000000001E-2"/>
+          <c:y val="0.18321777486147564"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.51990558471857684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>calculateGrav()    </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collideParticles() </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eraseParticles()   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>saveFrame()        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>drawParticles()    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>updateFocus()      </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>updateVelAndPos()  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14376979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12242439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11573189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246068941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB3E-450E-9604-D59694FCA68F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="percent"/>
+        <c:splitPos val="1"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Particle Count = 2048</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>calculateGrav()    </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collideParticles() </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eraseParticles()   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>saveFrame()        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>drawParticles()    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>updateFocus()      </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>updateVelAndPos()  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>907590192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152029929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146721199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373355587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3790614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>963576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5BB-4747-86E4-E5BA73F1A11A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="percent"/>
+        <c:splitPos val="1"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Particle Count = 262144</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-5329-40E5-9720-5D328AA23E4D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>calculateGrav()    </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collideParticles() </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eraseParticles()   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>saveFrame()        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>drawParticles()    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>updateFocus()      </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>updateVelAndPos()  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$S$4:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12149956944835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>493020070901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17484682538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1615842811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80240423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10111520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8860862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-5329-40E5-9720-5D328AA23E4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="percent"/>
+        <c:splitPos val="1"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Particle Count = 1024</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5000000000000001E-2"/>
+          <c:y val="0.18321777486147564"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.51990558471857684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D294-4889-8A7B-A7DA1ABE5B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>calculateGrav()    </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collideParticles() </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eraseParticles()   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>saveFrame()        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>drawParticles()    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>updateFocus()      </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>updateVelAndPos()  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>260471580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78894074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79100555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333583585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2370304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-D294-4889-8A7B-A7DA1ABE5B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="percent"/>
+        <c:splitPos val="1"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2158,7 +4074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3772,7 +5688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4673,7 +6589,2837 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5189,7 +9935,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5705,7 +10451,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6232,6 +10978,165 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>776289</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>842964</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6300,7 +11205,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7374,8 +12279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8582,6 +13487,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8589,7 +13495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -8614,7 +13520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U5:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
